--- a/mosip_master/xlsx/reason_category.xlsx
+++ b/mosip_master/xlsx/reason_category.xlsx
@@ -273,7 +273,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/reason_category.xlsx
+++ b/mosip_master/xlsx/reason_category.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -74,21 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rejet en enregistrement Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحكم اليدوي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الرفض أثناء الحكم اليدوي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رفض العميل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الرفض في تسجيل العميل</t>
   </si>
 </sst>
 </file>
@@ -179,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,10 +183,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -221,16 +202,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="C6:D7"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -316,40 +295,6 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/reason_category.xlsx
+++ b/mosip_master/xlsx/reason_category.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -89,51 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">الرفض في تسجيل العميل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಹಸ್ತಚಾಲಿತ ತೀರ್ಪು</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಹಸ್ತಚಾಲಿತ ತೀರ್ಪಿನ ಸಮಯದಲ್ಲಿ ನಿರಾಕರಣೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಗ್ರಾಹಕ ನಿರಾಕರಣೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನೋಂದಣಿ ಕ್ಲೈಂಟ್‌ನಲ್ಲಿ ನಿರಾಕರಣೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मैनुअल अधिनिर्णय</t>
-  </si>
-  <si>
-    <t xml:space="preserve">मैनुअल अधिनिर्णय के दौरान अस्वीकृति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ग्राहक अस्वीकृति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पंजीकरण ग्राहक में अस्वीकृति</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">உள் அங்கீகாரம்</t>
-  </si>
-  <si>
-    <t xml:space="preserve">கைமுறை தீர்ப்பின் போது நிராகரிப்பு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">வாடிக்கையாளர் நிராகரிப்பு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பதிவு கிளையண்டில் நிராகரிப்பு</t>
   </si>
 </sst>
 </file>
@@ -224,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,10 +202,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -270,10 +221,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="C6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -402,108 +353,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
